--- a/DiscoveryTestsScript/DiscoveryTestNewUFT/Default.xlsx
+++ b/DiscoveryTestsScript/DiscoveryTestNewUFT/Default.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="SpreadsheetGear 8.2.5.102"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
     <sheet name="Action1" sheetId="2" r:id="rId2"/>
+    <sheet name="Action2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
@@ -469,7 +470,9 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.95"/>
   <cols>
@@ -483,6 +486,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.95"/>
+  <cols>
+    <col min="1" max="16384" width="8.8984375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>

--- a/DiscoveryTestsScript/DiscoveryTestNewUFT/Default.xlsx
+++ b/DiscoveryTestsScript/DiscoveryTestNewUFT/Default.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="SpreadsheetGear 8.2.5.102"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
     <sheet name="Action1" sheetId="2" r:id="rId2"/>
     <sheet name="Action2" sheetId="3" r:id="rId3"/>
+    <sheet name="Action3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
@@ -508,6 +509,25 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.95"/>
+  <cols>
+    <col min="1" max="16384" width="8.8984375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>

--- a/DiscoveryTestsScript/DiscoveryTestNewUFT/Default.xlsx
+++ b/DiscoveryTestsScript/DiscoveryTestNewUFT/Default.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
-    <sheet name="Action1" sheetId="2" r:id="rId2"/>
+    <sheet name="Rename" sheetId="2" r:id="rId2"/>
     <sheet name="Action2" sheetId="3" r:id="rId3"/>
     <sheet name="Action3" sheetId="4" r:id="rId4"/>
   </sheets>

--- a/DiscoveryTestsScript/DiscoveryTestNewUFT/Default.xlsx
+++ b/DiscoveryTestsScript/DiscoveryTestNewUFT/Default.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="SpreadsheetGear 8.2.5.102"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
-    <sheet name="Rename" sheetId="2" r:id="rId2"/>
-    <sheet name="Action2" sheetId="3" r:id="rId3"/>
-    <sheet name="Action3" sheetId="4" r:id="rId4"/>
+    <sheet name="Rename1" sheetId="2" r:id="rId2"/>
+    <sheet name="Rename2" sheetId="3" r:id="rId3"/>
+    <sheet name="Rename3" sheetId="4" r:id="rId4"/>
+    <sheet name="NewActionTests" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
@@ -528,6 +529,25 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.95"/>
+  <cols>
+    <col min="1" max="16384" width="8.8984375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>

--- a/DiscoveryTestsScript/DiscoveryTestNewUFT/Default.xlsx
+++ b/DiscoveryTestsScript/DiscoveryTestNewUFT/Default.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Rename1" sheetId="2" r:id="rId2"/>
     <sheet name="Rename2" sheetId="3" r:id="rId3"/>
     <sheet name="Rename3" sheetId="4" r:id="rId4"/>
-    <sheet name="NewActionTests" sheetId="5" r:id="rId5"/>
+    <sheet name="NewActionTestsRename" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>

--- a/DiscoveryTestsScript/DiscoveryTestNewUFT/Default.xlsx
+++ b/DiscoveryTestsScript/DiscoveryTestNewUFT/Default.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="SpreadsheetGear 8.2.5.102"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
     <sheet name="Rename1" sheetId="2" r:id="rId2"/>
     <sheet name="Rename2" sheetId="3" r:id="rId3"/>
     <sheet name="Rename3" sheetId="4" r:id="rId4"/>
-    <sheet name="NewActionTestsRename" sheetId="5" r:id="rId5"/>
+    <sheet name="NewActionTestsRename2" sheetId="5" r:id="rId5"/>
+    <sheet name="newActionItay" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
@@ -548,6 +549,25 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.95"/>
+  <cols>
+    <col min="1" max="16384" width="8.8984375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
